--- a/images_generator/k-anonymity.xlsx
+++ b/images_generator/k-anonymity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhiyuan/design-report/images_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85330512-3EE7-7B42-BF8E-E3F1A1A2D63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ABE9799-E65F-6B4B-926E-D24CDA4BCCEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14120" xr2:uid="{1BCF0100-A08F-554A-9A3B-6859338688C1}"/>
   </bookViews>
@@ -119,10 +119,10 @@
     <t>Maximum</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Steps &gt; 10000</t>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Reading &gt; 10000</t>
   </si>
 </sst>
 </file>
@@ -496,7 +496,7 @@
   <dimension ref="B2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,7 +505,8 @@
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
